--- a/stock_historical_data/1mo/COCHINSHIP.NS.xlsx
+++ b/stock_historical_data/1mo/COCHINSHIP.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,60 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2100</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2100</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I83" t="n">
+        <v>6</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>22</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/COCHINSHIP.NS.xlsx
+++ b/stock_historical_data/1mo/COCHINSHIP.NS.xlsx
@@ -4866,7 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1mo/COCHINSHIP.NS.xlsx
+++ b/stock_historical_data/1mo/COCHINSHIP.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q83"/>
+  <dimension ref="A1:Q93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,31 +526,29 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42979</v>
+        <v>42948</v>
       </c>
       <c r="B2" t="n">
-        <v>257.5</v>
+        <v>171.6879103138081</v>
       </c>
       <c r="C2" t="n">
-        <v>289.8999938964844</v>
+        <v>224.2884239449905</v>
       </c>
       <c r="D2" t="n">
-        <v>255.5</v>
+        <v>169.6790685496885</v>
       </c>
       <c r="E2" t="n">
-        <v>260</v>
-      </c>
-      <c r="F2" t="n">
-        <v>204.2473297119141</v>
-      </c>
+        <v>200.2798156738281</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>37586346</v>
+        <v>106279396</v>
       </c>
       <c r="H2" t="n">
         <v>2017</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -565,45 +563,39 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>35</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>43009</v>
+        <v>42979</v>
       </c>
       <c r="B3" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>289.8999938964844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>255.5</v>
+      </c>
+      <c r="E3" t="n">
         <v>260</v>
       </c>
-      <c r="C3" t="n">
-        <v>298.8999938964844</v>
-      </c>
-      <c r="D3" t="n">
-        <v>257.5</v>
-      </c>
-      <c r="E3" t="n">
-        <v>289.8500061035156</v>
-      </c>
       <c r="F3" t="n">
-        <v>227.6964569091797</v>
+        <v>204.2473297119141</v>
       </c>
       <c r="G3" t="n">
-        <v>42716090</v>
+        <v>37586346</v>
       </c>
       <c r="H3" t="n">
         <v>2017</v>
       </c>
       <c r="I3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
         <v>1</v>
@@ -618,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -632,31 +624,31 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>43040</v>
+        <v>43009</v>
       </c>
       <c r="B4" t="n">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C4" t="n">
-        <v>299.5</v>
+        <v>298.8999938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>270.5</v>
+        <v>257.5</v>
       </c>
       <c r="E4" t="n">
-        <v>284.7999877929688</v>
+        <v>289.8500061035156</v>
       </c>
       <c r="F4" t="n">
-        <v>223.7292938232422</v>
+        <v>227.6964569091797</v>
       </c>
       <c r="G4" t="n">
-        <v>15428730</v>
+        <v>42716090</v>
       </c>
       <c r="H4" t="n">
         <v>2017</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -671,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -685,31 +677,31 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>43070</v>
+        <v>43040</v>
       </c>
       <c r="B5" t="n">
-        <v>284.9249877929688</v>
+        <v>291</v>
       </c>
       <c r="C5" t="n">
-        <v>287</v>
+        <v>299.5</v>
       </c>
       <c r="D5" t="n">
-        <v>261.7749938964844</v>
+        <v>270.5</v>
       </c>
       <c r="E5" t="n">
-        <v>276.0499877929688</v>
+        <v>284.7999877929688</v>
       </c>
       <c r="F5" t="n">
-        <v>216.8556213378906</v>
+        <v>223.7292938232422</v>
       </c>
       <c r="G5" t="n">
-        <v>6503792</v>
+        <v>15428730</v>
       </c>
       <c r="H5" t="n">
         <v>2017</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
         <v>1</v>
@@ -724,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -738,31 +730,31 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>43101</v>
+        <v>43070</v>
       </c>
       <c r="B6" t="n">
-        <v>276.5</v>
+        <v>284.9249877929688</v>
       </c>
       <c r="C6" t="n">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D6" t="n">
-        <v>266</v>
+        <v>261.7749938964844</v>
       </c>
       <c r="E6" t="n">
-        <v>268.8500061035156</v>
+        <v>276.0499877929688</v>
       </c>
       <c r="F6" t="n">
-        <v>211.1995239257812</v>
+        <v>216.8556213378906</v>
       </c>
       <c r="G6" t="n">
-        <v>12144638</v>
+        <v>6503792</v>
       </c>
       <c r="H6" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -777,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -791,31 +783,31 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>43132</v>
+        <v>43101</v>
       </c>
       <c r="B7" t="n">
-        <v>269.4500122070312</v>
+        <v>276.5</v>
       </c>
       <c r="C7" t="n">
-        <v>272.3500061035156</v>
+        <v>285</v>
       </c>
       <c r="D7" t="n">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>266.25</v>
+        <v>268.8500061035156</v>
       </c>
       <c r="F7" t="n">
-        <v>209.1571197509766</v>
+        <v>211.1995239257812</v>
       </c>
       <c r="G7" t="n">
-        <v>5926706</v>
+        <v>12144638</v>
       </c>
       <c r="H7" t="n">
         <v>2018</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -830,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -844,31 +836,31 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>43160</v>
+        <v>43132</v>
       </c>
       <c r="B8" t="n">
-        <v>266</v>
+        <v>269.4500122070312</v>
       </c>
       <c r="C8" t="n">
-        <v>268.9500122070312</v>
+        <v>272.3500061035156</v>
       </c>
       <c r="D8" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E8" t="n">
-        <v>251.1750030517578</v>
+        <v>266.25</v>
       </c>
       <c r="F8" t="n">
-        <v>197.3146667480469</v>
+        <v>209.1571197509766</v>
       </c>
       <c r="G8" t="n">
-        <v>5247054</v>
+        <v>5926706</v>
       </c>
       <c r="H8" t="n">
         <v>2018</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
@@ -883,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -897,31 +889,31 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>43191</v>
+        <v>43160</v>
       </c>
       <c r="B9" t="n">
-        <v>252.5</v>
+        <v>266</v>
       </c>
       <c r="C9" t="n">
-        <v>272.1000061035156</v>
+        <v>268.9500122070312</v>
       </c>
       <c r="D9" t="n">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="E9" t="n">
-        <v>265.4750061035156</v>
+        <v>251.1750030517578</v>
       </c>
       <c r="F9" t="n">
-        <v>208.5482482910156</v>
+        <v>197.3146667480469</v>
       </c>
       <c r="G9" t="n">
-        <v>3086404</v>
+        <v>5247054</v>
       </c>
       <c r="H9" t="n">
         <v>2018</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -950,31 +942,31 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>43221</v>
+        <v>43191</v>
       </c>
       <c r="B10" t="n">
+        <v>252.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>272.1000061035156</v>
+      </c>
+      <c r="D10" t="n">
+        <v>251</v>
+      </c>
+      <c r="E10" t="n">
         <v>265.4750061035156</v>
       </c>
-      <c r="C10" t="n">
-        <v>266.9500122070312</v>
-      </c>
-      <c r="D10" t="n">
-        <v>237.5</v>
-      </c>
-      <c r="E10" t="n">
-        <v>252.1499938964844</v>
-      </c>
       <c r="F10" t="n">
-        <v>198.0806121826172</v>
+        <v>208.5482482910156</v>
       </c>
       <c r="G10" t="n">
-        <v>4277492</v>
+        <v>3086404</v>
       </c>
       <c r="H10" t="n">
         <v>2018</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -989,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1003,31 +995,31 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>43252</v>
+        <v>43221</v>
       </c>
       <c r="B11" t="n">
-        <v>255</v>
+        <v>265.4750061035156</v>
       </c>
       <c r="C11" t="n">
-        <v>257.0750122070312</v>
+        <v>266.9500122070312</v>
       </c>
       <c r="D11" t="n">
-        <v>215.0500030517578</v>
+        <v>237.5</v>
       </c>
       <c r="E11" t="n">
-        <v>220.5249938964844</v>
+        <v>252.1499938964844</v>
       </c>
       <c r="F11" t="n">
-        <v>173.2370452880859</v>
+        <v>198.0806121826172</v>
       </c>
       <c r="G11" t="n">
-        <v>6060446</v>
+        <v>4277492</v>
       </c>
       <c r="H11" t="n">
         <v>2018</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
@@ -1042,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1056,31 +1048,31 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>43282</v>
+        <v>43252</v>
       </c>
       <c r="B12" t="n">
-        <v>222</v>
+        <v>255</v>
       </c>
       <c r="C12" t="n">
-        <v>228.9750061035156</v>
+        <v>257.0750122070312</v>
       </c>
       <c r="D12" t="n">
-        <v>212.0249938964844</v>
+        <v>215.0500030517578</v>
       </c>
       <c r="E12" t="n">
-        <v>225.5500030517578</v>
+        <v>220.5249938964844</v>
       </c>
       <c r="F12" t="n">
-        <v>177.1845550537109</v>
+        <v>173.2370452880859</v>
       </c>
       <c r="G12" t="n">
-        <v>4798556</v>
+        <v>6060446</v>
       </c>
       <c r="H12" t="n">
         <v>2018</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1095,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1109,31 +1101,31 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>43313</v>
+        <v>43282</v>
       </c>
       <c r="B13" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C13" t="n">
-        <v>231.4750061035156</v>
+        <v>228.9750061035156</v>
       </c>
       <c r="D13" t="n">
-        <v>210.5</v>
+        <v>212.0249938964844</v>
       </c>
       <c r="E13" t="n">
-        <v>211.2749938964844</v>
+        <v>225.5500030517578</v>
       </c>
       <c r="F13" t="n">
-        <v>165.9705657958984</v>
+        <v>177.1845550537109</v>
       </c>
       <c r="G13" t="n">
-        <v>4030728</v>
+        <v>4798556</v>
       </c>
       <c r="H13" t="n">
         <v>2018</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>1</v>
@@ -1148,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1162,31 +1154,31 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>43344</v>
+        <v>43313</v>
       </c>
       <c r="B14" t="n">
-        <v>211.6999969482422</v>
+        <v>226</v>
       </c>
       <c r="C14" t="n">
-        <v>217.5</v>
+        <v>231.4750061035156</v>
       </c>
       <c r="D14" t="n">
-        <v>194</v>
+        <v>210.5</v>
       </c>
       <c r="E14" t="n">
-        <v>195.0500030517578</v>
+        <v>211.2749938964844</v>
       </c>
       <c r="F14" t="n">
-        <v>157.3492431640625</v>
+        <v>165.9705657958984</v>
       </c>
       <c r="G14" t="n">
-        <v>4790438</v>
+        <v>4030728</v>
       </c>
       <c r="H14" t="n">
         <v>2018</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1201,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1215,31 +1207,31 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>43374</v>
+        <v>43344</v>
       </c>
       <c r="B15" t="n">
-        <v>190.3999938964844</v>
+        <v>211.6999969482422</v>
       </c>
       <c r="C15" t="n">
-        <v>204.625</v>
+        <v>217.5</v>
       </c>
       <c r="D15" t="n">
-        <v>178.0249938964844</v>
+        <v>194</v>
       </c>
       <c r="E15" t="n">
-        <v>193.5</v>
+        <v>195.0500030517578</v>
       </c>
       <c r="F15" t="n">
-        <v>156.0988464355469</v>
+        <v>157.3492431640625</v>
       </c>
       <c r="G15" t="n">
-        <v>7621666</v>
+        <v>4790438</v>
       </c>
       <c r="H15" t="n">
         <v>2018</v>
       </c>
       <c r="I15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
@@ -1254,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1268,31 +1260,31 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>43405</v>
+        <v>43374</v>
       </c>
       <c r="B16" t="n">
-        <v>195.5</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="C16" t="n">
-        <v>202</v>
+        <v>204.625</v>
       </c>
       <c r="D16" t="n">
-        <v>186.875</v>
+        <v>178.0249938964844</v>
       </c>
       <c r="E16" t="n">
-        <v>187.3249969482422</v>
+        <v>193.5</v>
       </c>
       <c r="F16" t="n">
-        <v>151.1174011230469</v>
+        <v>156.0988464355469</v>
       </c>
       <c r="G16" t="n">
-        <v>3662204</v>
+        <v>7621666</v>
       </c>
       <c r="H16" t="n">
         <v>2018</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1307,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1321,31 +1313,31 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>43435</v>
+        <v>43405</v>
       </c>
       <c r="B17" t="n">
-        <v>188.9750061035156</v>
+        <v>195.5</v>
       </c>
       <c r="C17" t="n">
-        <v>198.0500030517578</v>
+        <v>202</v>
       </c>
       <c r="D17" t="n">
-        <v>183</v>
+        <v>186.875</v>
       </c>
       <c r="E17" t="n">
-        <v>187.0249938964844</v>
+        <v>187.3249969482422</v>
       </c>
       <c r="F17" t="n">
-        <v>150.8753662109375</v>
+        <v>151.1174011230469</v>
       </c>
       <c r="G17" t="n">
-        <v>2334342</v>
+        <v>3662204</v>
       </c>
       <c r="H17" t="n">
         <v>2018</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1374,31 +1366,31 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>43466</v>
+        <v>43435</v>
       </c>
       <c r="B18" t="n">
+        <v>188.9750061035156</v>
+      </c>
+      <c r="C18" t="n">
+        <v>198.0500030517578</v>
+      </c>
+      <c r="D18" t="n">
+        <v>183</v>
+      </c>
+      <c r="E18" t="n">
         <v>187.0249938964844</v>
       </c>
-      <c r="C18" t="n">
-        <v>189.5</v>
-      </c>
-      <c r="D18" t="n">
-        <v>178.4250030517578</v>
-      </c>
-      <c r="E18" t="n">
-        <v>181.9750061035156</v>
-      </c>
       <c r="F18" t="n">
-        <v>146.8014678955078</v>
+        <v>150.8753662109375</v>
       </c>
       <c r="G18" t="n">
-        <v>3111738</v>
+        <v>2334342</v>
       </c>
       <c r="H18" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1413,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1427,31 +1419,31 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>43497</v>
+        <v>43466</v>
       </c>
       <c r="B19" t="n">
-        <v>182.8999938964844</v>
+        <v>187.0249938964844</v>
       </c>
       <c r="C19" t="n">
-        <v>188.5</v>
+        <v>189.5</v>
       </c>
       <c r="D19" t="n">
-        <v>167.5</v>
+        <v>178.4250030517578</v>
       </c>
       <c r="E19" t="n">
-        <v>174.4750061035156</v>
+        <v>181.9750061035156</v>
       </c>
       <c r="F19" t="n">
-        <v>140.7511291503906</v>
+        <v>146.8014678955078</v>
       </c>
       <c r="G19" t="n">
-        <v>1813792</v>
+        <v>3111738</v>
       </c>
       <c r="H19" t="n">
         <v>2019</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>1</v>
@@ -1466,10 +1458,10 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1480,31 +1472,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>43525</v>
+        <v>43497</v>
       </c>
       <c r="B20" t="n">
-        <v>175.25</v>
+        <v>182.8999938964844</v>
       </c>
       <c r="C20" t="n">
-        <v>201.6999969482422</v>
+        <v>188.5</v>
       </c>
       <c r="D20" t="n">
-        <v>174.9250030517578</v>
+        <v>167.5</v>
       </c>
       <c r="E20" t="n">
-        <v>195.8000030517578</v>
+        <v>174.4750061035156</v>
       </c>
       <c r="F20" t="n">
-        <v>157.9542694091797</v>
+        <v>140.7511291503906</v>
       </c>
       <c r="G20" t="n">
-        <v>4104944</v>
+        <v>1813792</v>
       </c>
       <c r="H20" t="n">
         <v>2019</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>1</v>
@@ -1519,10 +1511,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1533,31 +1525,31 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>43556</v>
+        <v>43525</v>
       </c>
       <c r="B21" t="n">
-        <v>194.5</v>
+        <v>175.25</v>
       </c>
       <c r="C21" t="n">
-        <v>204.2749938964844</v>
+        <v>201.6999969482422</v>
       </c>
       <c r="D21" t="n">
-        <v>186.5</v>
+        <v>174.9250030517578</v>
       </c>
       <c r="E21" t="n">
-        <v>188.3249969482422</v>
+        <v>195.8000030517578</v>
       </c>
       <c r="F21" t="n">
-        <v>151.924072265625</v>
+        <v>157.9542694091797</v>
       </c>
       <c r="G21" t="n">
-        <v>2059156</v>
+        <v>4104944</v>
       </c>
       <c r="H21" t="n">
         <v>2019</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
@@ -1572,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -1586,31 +1578,31 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>43586</v>
+        <v>43556</v>
       </c>
       <c r="B22" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>204.2749938964844</v>
+      </c>
+      <c r="D22" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="E22" t="n">
         <v>188.3249969482422</v>
       </c>
-      <c r="C22" t="n">
-        <v>194.6999969482422</v>
-      </c>
-      <c r="D22" t="n">
-        <v>175.5749969482422</v>
-      </c>
-      <c r="E22" t="n">
-        <v>192.5500030517578</v>
-      </c>
       <c r="F22" t="n">
-        <v>155.3324279785156</v>
+        <v>151.924072265625</v>
       </c>
       <c r="G22" t="n">
-        <v>4714336</v>
+        <v>2059156</v>
       </c>
       <c r="H22" t="n">
         <v>2019</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J22" t="n">
         <v>1</v>
@@ -1625,10 +1617,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1639,31 +1631,31 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>43617</v>
+        <v>43586</v>
       </c>
       <c r="B23" t="n">
-        <v>191.5</v>
+        <v>188.3249969482422</v>
       </c>
       <c r="C23" t="n">
-        <v>204</v>
+        <v>194.6999969482422</v>
       </c>
       <c r="D23" t="n">
-        <v>187</v>
+        <v>175.5749969482422</v>
       </c>
       <c r="E23" t="n">
-        <v>189.2250061035156</v>
+        <v>192.5500030517578</v>
       </c>
       <c r="F23" t="n">
-        <v>152.650146484375</v>
+        <v>155.3324279785156</v>
       </c>
       <c r="G23" t="n">
-        <v>2320158</v>
+        <v>4714336</v>
       </c>
       <c r="H23" t="n">
         <v>2019</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1687,36 +1679,36 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>43647</v>
+        <v>43617</v>
       </c>
       <c r="B24" t="n">
-        <v>189.5</v>
+        <v>191.5</v>
       </c>
       <c r="C24" t="n">
-        <v>194.9750061035156</v>
+        <v>204</v>
       </c>
       <c r="D24" t="n">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="E24" t="n">
-        <v>178.6750030517578</v>
+        <v>189.2250061035156</v>
       </c>
       <c r="F24" t="n">
-        <v>144.1393127441406</v>
+        <v>152.650146484375</v>
       </c>
       <c r="G24" t="n">
-        <v>1784638</v>
+        <v>2320158</v>
       </c>
       <c r="H24" t="n">
         <v>2019</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1731,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1740,36 +1732,36 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>43678</v>
+        <v>43647</v>
       </c>
       <c r="B25" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>194.9750061035156</v>
+      </c>
+      <c r="D25" t="n">
+        <v>175</v>
+      </c>
+      <c r="E25" t="n">
         <v>178.6750030517578</v>
       </c>
-      <c r="C25" t="n">
-        <v>182.9499969482422</v>
-      </c>
-      <c r="D25" t="n">
-        <v>165.8249969482422</v>
-      </c>
-      <c r="E25" t="n">
-        <v>172.3999938964844</v>
-      </c>
       <c r="F25" t="n">
-        <v>139.0771942138672</v>
+        <v>144.1393127441406</v>
       </c>
       <c r="G25" t="n">
-        <v>1819908</v>
+        <v>1784638</v>
       </c>
       <c r="H25" t="n">
         <v>2019</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
@@ -1784,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1798,31 +1790,31 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>43709</v>
+        <v>43678</v>
       </c>
       <c r="B26" t="n">
+        <v>178.6750030517578</v>
+      </c>
+      <c r="C26" t="n">
+        <v>182.9499969482422</v>
+      </c>
+      <c r="D26" t="n">
+        <v>165.8249969482422</v>
+      </c>
+      <c r="E26" t="n">
         <v>172.3999938964844</v>
       </c>
-      <c r="C26" t="n">
-        <v>184.2749938964844</v>
-      </c>
-      <c r="D26" t="n">
-        <v>164.5</v>
-      </c>
-      <c r="E26" t="n">
-        <v>168.8500061035156</v>
-      </c>
       <c r="F26" t="n">
-        <v>141.3319702148438</v>
+        <v>139.0771942138672</v>
       </c>
       <c r="G26" t="n">
-        <v>2712806</v>
+        <v>1819908</v>
       </c>
       <c r="H26" t="n">
         <v>2019</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
@@ -1837,7 +1829,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1851,31 +1843,31 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>43739</v>
+        <v>43709</v>
       </c>
       <c r="B27" t="n">
-        <v>169.9750061035156</v>
+        <v>172.3999938964844</v>
       </c>
       <c r="C27" t="n">
-        <v>206</v>
+        <v>184.2749938964844</v>
       </c>
       <c r="D27" t="n">
-        <v>163.4499969482422</v>
+        <v>164.5</v>
       </c>
       <c r="E27" t="n">
-        <v>194.7749938964844</v>
+        <v>168.8500061035156</v>
       </c>
       <c r="F27" t="n">
-        <v>163.0318603515625</v>
+        <v>141.3319702148438</v>
       </c>
       <c r="G27" t="n">
-        <v>8659534</v>
+        <v>2712806</v>
       </c>
       <c r="H27" t="n">
         <v>2019</v>
       </c>
       <c r="I27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -1890,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="O27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -1904,31 +1896,31 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>43770</v>
+        <v>43739</v>
       </c>
       <c r="B28" t="n">
-        <v>195</v>
+        <v>169.9750061035156</v>
       </c>
       <c r="C28" t="n">
-        <v>212.2749938964844</v>
+        <v>206</v>
       </c>
       <c r="D28" t="n">
-        <v>195</v>
+        <v>163.4499969482422</v>
       </c>
       <c r="E28" t="n">
-        <v>200.625</v>
+        <v>194.7749938964844</v>
       </c>
       <c r="F28" t="n">
-        <v>167.9284820556641</v>
+        <v>163.0318603515625</v>
       </c>
       <c r="G28" t="n">
-        <v>6539846</v>
+        <v>8659534</v>
       </c>
       <c r="H28" t="n">
         <v>2019</v>
       </c>
       <c r="I28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" t="n">
         <v>1</v>
@@ -1943,10 +1935,10 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -1957,31 +1949,31 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>43800</v>
+        <v>43770</v>
       </c>
       <c r="B29" t="n">
-        <v>202.3999938964844</v>
+        <v>195</v>
       </c>
       <c r="C29" t="n">
-        <v>204.6000061035156</v>
+        <v>212.2749938964844</v>
       </c>
       <c r="D29" t="n">
-        <v>189.5749969482422</v>
+        <v>195</v>
       </c>
       <c r="E29" t="n">
-        <v>201.4250030517578</v>
+        <v>200.625</v>
       </c>
       <c r="F29" t="n">
-        <v>169.2695922851562</v>
+        <v>167.9284820556641</v>
       </c>
       <c r="G29" t="n">
-        <v>3584878</v>
+        <v>6539846</v>
       </c>
       <c r="H29" t="n">
         <v>2019</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
@@ -1996,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2010,31 +2002,31 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>43831</v>
+        <v>43800</v>
       </c>
       <c r="B30" t="n">
-        <v>202.4499969482422</v>
+        <v>202.3999938964844</v>
       </c>
       <c r="C30" t="n">
-        <v>245.8500061035156</v>
+        <v>204.6000061035156</v>
       </c>
       <c r="D30" t="n">
-        <v>186.0249938964844</v>
+        <v>189.5749969482422</v>
       </c>
       <c r="E30" t="n">
-        <v>189.5749969482422</v>
+        <v>201.4250030517578</v>
       </c>
       <c r="F30" t="n">
-        <v>159.3113098144531</v>
+        <v>169.2695922851562</v>
       </c>
       <c r="G30" t="n">
-        <v>18112366</v>
+        <v>3584878</v>
       </c>
       <c r="H30" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2049,10 +2041,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -2063,31 +2055,31 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>43862</v>
+        <v>43831</v>
       </c>
       <c r="B31" t="n">
+        <v>202.4499969482422</v>
+      </c>
+      <c r="C31" t="n">
+        <v>245.8500061035156</v>
+      </c>
+      <c r="D31" t="n">
+        <v>186.0249938964844</v>
+      </c>
+      <c r="E31" t="n">
         <v>189.5749969482422</v>
       </c>
-      <c r="C31" t="n">
-        <v>191.8000030517578</v>
-      </c>
-      <c r="D31" t="n">
-        <v>167.5</v>
-      </c>
-      <c r="E31" t="n">
-        <v>169.3999938964844</v>
-      </c>
       <c r="F31" t="n">
-        <v>142.3570404052734</v>
+        <v>159.3113098144531</v>
       </c>
       <c r="G31" t="n">
-        <v>13017354</v>
+        <v>18112366</v>
       </c>
       <c r="H31" t="n">
         <v>2020</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2102,45 +2094,45 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>43891</v>
+        <v>43862</v>
       </c>
       <c r="B32" t="n">
-        <v>171</v>
+        <v>189.5749969482422</v>
       </c>
       <c r="C32" t="n">
-        <v>173.375</v>
+        <v>191.8000030517578</v>
       </c>
       <c r="D32" t="n">
-        <v>104.5500030517578</v>
+        <v>167.5</v>
       </c>
       <c r="E32" t="n">
-        <v>133.1750030517578</v>
+        <v>169.3999938964844</v>
       </c>
       <c r="F32" t="n">
-        <v>111.9149932861328</v>
+        <v>142.3570404052734</v>
       </c>
       <c r="G32" t="n">
-        <v>14387386</v>
+        <v>13017354</v>
       </c>
       <c r="H32" t="n">
         <v>2020</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32" t="n">
         <v>1</v>
@@ -2155,45 +2147,45 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>43922</v>
+        <v>43891</v>
       </c>
       <c r="B33" t="n">
-        <v>133.3999938964844</v>
+        <v>171</v>
       </c>
       <c r="C33" t="n">
-        <v>142.0500030517578</v>
+        <v>173.375</v>
       </c>
       <c r="D33" t="n">
-        <v>120</v>
+        <v>104.5500030517578</v>
       </c>
       <c r="E33" t="n">
-        <v>123.875</v>
+        <v>133.1750030517578</v>
       </c>
       <c r="F33" t="n">
-        <v>104.0996322631836</v>
+        <v>111.9149932861328</v>
       </c>
       <c r="G33" t="n">
-        <v>6703292</v>
+        <v>14387386</v>
       </c>
       <c r="H33" t="n">
         <v>2020</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
         <v>1</v>
@@ -2208,10 +2200,10 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -2222,31 +2214,31 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B34" t="n">
+        <v>133.3999938964844</v>
+      </c>
+      <c r="C34" t="n">
+        <v>142.0500030517578</v>
+      </c>
+      <c r="D34" t="n">
+        <v>120</v>
+      </c>
+      <c r="E34" t="n">
         <v>123.875</v>
       </c>
-      <c r="C34" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="D34" t="n">
-        <v>109.2249984741211</v>
-      </c>
-      <c r="E34" t="n">
-        <v>112.4250030517578</v>
-      </c>
       <c r="F34" t="n">
-        <v>94.47751617431641</v>
+        <v>104.0996322631836</v>
       </c>
       <c r="G34" t="n">
-        <v>13096726</v>
+        <v>6703292</v>
       </c>
       <c r="H34" t="n">
         <v>2020</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
         <v>1</v>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2270,36 +2262,36 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B35" t="n">
-        <v>113.0999984741211</v>
+        <v>123.875</v>
       </c>
       <c r="C35" t="n">
-        <v>162.25</v>
+        <v>128.5</v>
       </c>
       <c r="D35" t="n">
-        <v>113.0999984741211</v>
+        <v>109.2249984741211</v>
       </c>
       <c r="E35" t="n">
-        <v>150.1499938964844</v>
+        <v>112.4250030517578</v>
       </c>
       <c r="F35" t="n">
-        <v>126.1801223754883</v>
+        <v>94.47751617431641</v>
       </c>
       <c r="G35" t="n">
-        <v>36221536</v>
+        <v>13096726</v>
       </c>
       <c r="H35" t="n">
         <v>2020</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
         <v>1</v>
@@ -2314,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -2323,36 +2315,36 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B36" t="n">
-        <v>150.9750061035156</v>
+        <v>113.0999984741211</v>
       </c>
       <c r="C36" t="n">
-        <v>174.1750030517578</v>
+        <v>162.25</v>
       </c>
       <c r="D36" t="n">
-        <v>146.9750061035156</v>
+        <v>113.0999984741211</v>
       </c>
       <c r="E36" t="n">
-        <v>164.4250030517578</v>
+        <v>150.1499938964844</v>
       </c>
       <c r="F36" t="n">
-        <v>138.1762542724609</v>
+        <v>126.1801223754883</v>
       </c>
       <c r="G36" t="n">
-        <v>36699492</v>
+        <v>36221536</v>
       </c>
       <c r="H36" t="n">
         <v>2020</v>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>1</v>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2376,36 +2368,36 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B37" t="n">
+        <v>150.9750061035156</v>
+      </c>
+      <c r="C37" t="n">
+        <v>174.1750030517578</v>
+      </c>
+      <c r="D37" t="n">
+        <v>146.9750061035156</v>
+      </c>
+      <c r="E37" t="n">
         <v>164.4250030517578</v>
       </c>
-      <c r="C37" t="n">
-        <v>185.6999969482422</v>
-      </c>
-      <c r="D37" t="n">
-        <v>160.8999938964844</v>
-      </c>
-      <c r="E37" t="n">
-        <v>166.2749938964844</v>
-      </c>
       <c r="F37" t="n">
-        <v>139.7309112548828</v>
+        <v>138.1762542724609</v>
       </c>
       <c r="G37" t="n">
-        <v>20736940</v>
+        <v>36699492</v>
       </c>
       <c r="H37" t="n">
         <v>2020</v>
       </c>
       <c r="I37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J37" t="n">
         <v>1</v>
@@ -2420,7 +2412,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2429,36 +2421,36 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B38" t="n">
-        <v>166.1999969482422</v>
+        <v>164.4250030517578</v>
       </c>
       <c r="C38" t="n">
-        <v>175.2250061035156</v>
+        <v>185.6999969482422</v>
       </c>
       <c r="D38" t="n">
-        <v>151.8000030517578</v>
+        <v>160.8999938964844</v>
       </c>
       <c r="E38" t="n">
-        <v>168.2749938964844</v>
+        <v>166.2749938964844</v>
       </c>
       <c r="F38" t="n">
-        <v>141.41162109375</v>
+        <v>139.7309112548828</v>
       </c>
       <c r="G38" t="n">
-        <v>9767556</v>
+        <v>20736940</v>
       </c>
       <c r="H38" t="n">
         <v>2020</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
         <v>1</v>
@@ -2473,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2487,31 +2479,31 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B39" t="n">
-        <v>169.9499969482422</v>
+        <v>166.1999969482422</v>
       </c>
       <c r="C39" t="n">
-        <v>189</v>
+        <v>175.2250061035156</v>
       </c>
       <c r="D39" t="n">
-        <v>158.2749938964844</v>
+        <v>151.8000030517578</v>
       </c>
       <c r="E39" t="n">
-        <v>169.4499969482422</v>
+        <v>168.2749938964844</v>
       </c>
       <c r="F39" t="n">
-        <v>148.8845062255859</v>
+        <v>141.41162109375</v>
       </c>
       <c r="G39" t="n">
-        <v>15002742</v>
+        <v>9767556</v>
       </c>
       <c r="H39" t="n">
         <v>2020</v>
       </c>
       <c r="I39" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
         <v>1</v>
@@ -2526,7 +2518,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2540,31 +2532,31 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B40" t="n">
-        <v>171.8500061035156</v>
+        <v>169.9499969482422</v>
       </c>
       <c r="C40" t="n">
-        <v>185.8500061035156</v>
+        <v>189</v>
       </c>
       <c r="D40" t="n">
-        <v>166.7250061035156</v>
+        <v>158.2749938964844</v>
       </c>
       <c r="E40" t="n">
-        <v>184.625</v>
+        <v>169.4499969482422</v>
       </c>
       <c r="F40" t="n">
-        <v>162.2177886962891</v>
+        <v>148.8845062255859</v>
       </c>
       <c r="G40" t="n">
-        <v>13265992</v>
+        <v>15002742</v>
       </c>
       <c r="H40" t="n">
         <v>2020</v>
       </c>
       <c r="I40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J40" t="n">
         <v>1</v>
@@ -2579,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2593,31 +2585,31 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>44166</v>
+        <v>44136</v>
       </c>
       <c r="B41" t="n">
-        <v>185.5</v>
+        <v>171.8500061035156</v>
       </c>
       <c r="C41" t="n">
-        <v>193.375</v>
+        <v>185.8500061035156</v>
       </c>
       <c r="D41" t="n">
-        <v>168.0500030517578</v>
+        <v>166.7250061035156</v>
       </c>
       <c r="E41" t="n">
-        <v>186.2749938964844</v>
+        <v>184.625</v>
       </c>
       <c r="F41" t="n">
-        <v>163.6675415039062</v>
+        <v>162.2177886962891</v>
       </c>
       <c r="G41" t="n">
-        <v>20600266</v>
+        <v>13265992</v>
       </c>
       <c r="H41" t="n">
         <v>2020</v>
       </c>
       <c r="I41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2632,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2646,31 +2638,31 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>44197</v>
+        <v>44166</v>
       </c>
       <c r="B42" t="n">
-        <v>186.6750030517578</v>
+        <v>185.5</v>
       </c>
       <c r="C42" t="n">
-        <v>198</v>
+        <v>193.375</v>
       </c>
       <c r="D42" t="n">
-        <v>169.5749969482422</v>
+        <v>168.0500030517578</v>
       </c>
       <c r="E42" t="n">
-        <v>174.3000030517578</v>
+        <v>186.2749938964844</v>
       </c>
       <c r="F42" t="n">
-        <v>153.1458892822266</v>
+        <v>163.6675415039062</v>
       </c>
       <c r="G42" t="n">
-        <v>12821136</v>
+        <v>20600266</v>
       </c>
       <c r="H42" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -2685,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2699,31 +2691,31 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>44228</v>
+        <v>44197</v>
       </c>
       <c r="B43" t="n">
-        <v>176</v>
+        <v>186.6750030517578</v>
       </c>
       <c r="C43" t="n">
-        <v>197.9499969482422</v>
+        <v>198</v>
       </c>
       <c r="D43" t="n">
-        <v>170.2749938964844</v>
+        <v>169.5749969482422</v>
       </c>
       <c r="E43" t="n">
-        <v>185.9250030517578</v>
+        <v>174.3000030517578</v>
       </c>
       <c r="F43" t="n">
-        <v>167.1982574462891</v>
+        <v>153.1458892822266</v>
       </c>
       <c r="G43" t="n">
-        <v>21146650</v>
+        <v>12821136</v>
       </c>
       <c r="H43" t="n">
         <v>2021</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>1</v>
@@ -2738,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2752,31 +2744,31 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B44" t="n">
-        <v>188.1999969482422</v>
+        <v>176</v>
       </c>
       <c r="C44" t="n">
-        <v>213.25</v>
+        <v>197.9499969482422</v>
       </c>
       <c r="D44" t="n">
-        <v>173.7250061035156</v>
+        <v>170.2749938964844</v>
       </c>
       <c r="E44" t="n">
-        <v>187.1499938964844</v>
+        <v>185.9250030517578</v>
       </c>
       <c r="F44" t="n">
-        <v>170.2287902832031</v>
+        <v>167.1982574462891</v>
       </c>
       <c r="G44" t="n">
-        <v>20564724</v>
+        <v>21146650</v>
       </c>
       <c r="H44" t="n">
         <v>2021</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
@@ -2791,7 +2783,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2805,31 +2797,31 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B45" t="n">
-        <v>187.25</v>
+        <v>188.1999969482422</v>
       </c>
       <c r="C45" t="n">
-        <v>191.25</v>
+        <v>213.25</v>
       </c>
       <c r="D45" t="n">
-        <v>170.25</v>
+        <v>173.7250061035156</v>
       </c>
       <c r="E45" t="n">
-        <v>182.7749938964844</v>
+        <v>187.1499938964844</v>
       </c>
       <c r="F45" t="n">
-        <v>166.2493896484375</v>
+        <v>170.2287902832031</v>
       </c>
       <c r="G45" t="n">
-        <v>6010212</v>
+        <v>20564724</v>
       </c>
       <c r="H45" t="n">
         <v>2021</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
         <v>1</v>
@@ -2844,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2858,31 +2850,31 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B46" t="n">
-        <v>182.3500061035156</v>
+        <v>187.25</v>
       </c>
       <c r="C46" t="n">
-        <v>201.25</v>
+        <v>191.25</v>
       </c>
       <c r="D46" t="n">
-        <v>181.1499938964844</v>
+        <v>170.25</v>
       </c>
       <c r="E46" t="n">
-        <v>187.3999938964844</v>
+        <v>182.7749938964844</v>
       </c>
       <c r="F46" t="n">
-        <v>170.4561920166016</v>
+        <v>166.2493896484375</v>
       </c>
       <c r="G46" t="n">
-        <v>15620958</v>
+        <v>6010212</v>
       </c>
       <c r="H46" t="n">
         <v>2021</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
         <v>1</v>
@@ -2897,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -2911,31 +2903,31 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B47" t="n">
-        <v>188.5</v>
+        <v>182.3500061035156</v>
       </c>
       <c r="C47" t="n">
-        <v>216.9499969482422</v>
+        <v>201.25</v>
       </c>
       <c r="D47" t="n">
-        <v>187.6999969482422</v>
+        <v>181.1499938964844</v>
       </c>
       <c r="E47" t="n">
-        <v>192.6000061035156</v>
+        <v>187.3999938964844</v>
       </c>
       <c r="F47" t="n">
-        <v>175.1860504150391</v>
+        <v>170.4561920166016</v>
       </c>
       <c r="G47" t="n">
-        <v>36421602</v>
+        <v>15620958</v>
       </c>
       <c r="H47" t="n">
         <v>2021</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
         <v>1</v>
@@ -2950,10 +2942,10 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
@@ -2964,31 +2956,31 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B48" t="n">
-        <v>194.3249969482422</v>
+        <v>188.5</v>
       </c>
       <c r="C48" t="n">
-        <v>201.3000030517578</v>
+        <v>216.9499969482422</v>
       </c>
       <c r="D48" t="n">
-        <v>184.375</v>
+        <v>187.6999969482422</v>
       </c>
       <c r="E48" t="n">
-        <v>188.3500061035156</v>
+        <v>192.6000061035156</v>
       </c>
       <c r="F48" t="n">
-        <v>171.3203277587891</v>
+        <v>175.1860504150391</v>
       </c>
       <c r="G48" t="n">
-        <v>12393594</v>
+        <v>36421602</v>
       </c>
       <c r="H48" t="n">
         <v>2021</v>
       </c>
       <c r="I48" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
         <v>1</v>
@@ -3003,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -3017,31 +3009,31 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B49" t="n">
+        <v>194.3249969482422</v>
+      </c>
+      <c r="C49" t="n">
+        <v>201.3000030517578</v>
+      </c>
+      <c r="D49" t="n">
+        <v>184.375</v>
+      </c>
+      <c r="E49" t="n">
         <v>188.3500061035156</v>
       </c>
-      <c r="C49" t="n">
-        <v>190.4750061035156</v>
-      </c>
-      <c r="D49" t="n">
-        <v>172.5500030517578</v>
-      </c>
-      <c r="E49" t="n">
-        <v>177.8999938964844</v>
-      </c>
       <c r="F49" t="n">
-        <v>161.8151702880859</v>
+        <v>171.3203277587891</v>
       </c>
       <c r="G49" t="n">
-        <v>8399370</v>
+        <v>12393594</v>
       </c>
       <c r="H49" t="n">
         <v>2021</v>
       </c>
       <c r="I49" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J49" t="n">
         <v>1</v>
@@ -3056,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3070,31 +3062,31 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B50" t="n">
+        <v>188.3500061035156</v>
+      </c>
+      <c r="C50" t="n">
+        <v>190.4750061035156</v>
+      </c>
+      <c r="D50" t="n">
+        <v>172.5500030517578</v>
+      </c>
+      <c r="E50" t="n">
         <v>177.8999938964844</v>
       </c>
-      <c r="C50" t="n">
-        <v>189.875</v>
-      </c>
-      <c r="D50" t="n">
-        <v>176.2749938964844</v>
-      </c>
-      <c r="E50" t="n">
-        <v>181.4250030517578</v>
-      </c>
       <c r="F50" t="n">
-        <v>165.0214538574219</v>
+        <v>161.8151702880859</v>
       </c>
       <c r="G50" t="n">
-        <v>8988656</v>
+        <v>8399370</v>
       </c>
       <c r="H50" t="n">
         <v>2021</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -3109,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3123,31 +3115,31 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B51" t="n">
-        <v>180.9750061035156</v>
+        <v>177.8999938964844</v>
       </c>
       <c r="C51" t="n">
-        <v>190.6499938964844</v>
+        <v>189.875</v>
       </c>
       <c r="D51" t="n">
-        <v>173.5500030517578</v>
+        <v>176.2749938964844</v>
       </c>
       <c r="E51" t="n">
-        <v>174.6999969482422</v>
+        <v>181.4250030517578</v>
       </c>
       <c r="F51" t="n">
-        <v>159.9895935058594</v>
+        <v>165.0214538574219</v>
       </c>
       <c r="G51" t="n">
-        <v>10803780</v>
+        <v>8988656</v>
       </c>
       <c r="H51" t="n">
         <v>2021</v>
       </c>
       <c r="I51" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
         <v>1</v>
@@ -3162,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3171,36 +3163,36 @@
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B52" t="n">
-        <v>175.3500061035156</v>
+        <v>180.9750061035156</v>
       </c>
       <c r="C52" t="n">
-        <v>191.5</v>
+        <v>190.6499938964844</v>
       </c>
       <c r="D52" t="n">
-        <v>168.5</v>
+        <v>173.5500030517578</v>
       </c>
       <c r="E52" t="n">
-        <v>169.7749938964844</v>
+        <v>174.6999969482422</v>
       </c>
       <c r="F52" t="n">
-        <v>155.4792938232422</v>
+        <v>159.9895935058594</v>
       </c>
       <c r="G52" t="n">
-        <v>9446814</v>
+        <v>10803780</v>
       </c>
       <c r="H52" t="n">
         <v>2021</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -3215,45 +3207,45 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>44531</v>
+        <v>44501</v>
       </c>
       <c r="B53" t="n">
-        <v>170</v>
+        <v>175.3500061035156</v>
       </c>
       <c r="C53" t="n">
-        <v>180</v>
+        <v>191.5</v>
       </c>
       <c r="D53" t="n">
-        <v>164</v>
+        <v>168.5</v>
       </c>
       <c r="E53" t="n">
-        <v>178.1499938964844</v>
+        <v>169.7749938964844</v>
       </c>
       <c r="F53" t="n">
-        <v>165.9551391601562</v>
+        <v>155.4792938232422</v>
       </c>
       <c r="G53" t="n">
-        <v>4709612</v>
+        <v>9446814</v>
       </c>
       <c r="H53" t="n">
         <v>2021</v>
       </c>
       <c r="I53" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J53" t="n">
         <v>1</v>
@@ -3268,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3282,31 +3274,31 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>44562</v>
+        <v>44531</v>
       </c>
       <c r="B54" t="n">
-        <v>178.9499969482422</v>
+        <v>170</v>
       </c>
       <c r="C54" t="n">
-        <v>179.3000030517578</v>
+        <v>180</v>
       </c>
       <c r="D54" t="n">
-        <v>163.9499969482422</v>
+        <v>164</v>
       </c>
       <c r="E54" t="n">
-        <v>171.5249938964844</v>
+        <v>178.1499938964844</v>
       </c>
       <c r="F54" t="n">
-        <v>159.7836456298828</v>
+        <v>165.9551391601562</v>
       </c>
       <c r="G54" t="n">
-        <v>4515128</v>
+        <v>4709612</v>
       </c>
       <c r="H54" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
@@ -3321,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3335,31 +3327,31 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>44593</v>
+        <v>44562</v>
       </c>
       <c r="B55" t="n">
-        <v>171.75</v>
+        <v>178.9499969482422</v>
       </c>
       <c r="C55" t="n">
-        <v>174</v>
+        <v>179.3000030517578</v>
       </c>
       <c r="D55" t="n">
-        <v>142.5249938964844</v>
+        <v>163.9499969482422</v>
       </c>
       <c r="E55" t="n">
-        <v>144.9499969482422</v>
+        <v>171.5249938964844</v>
       </c>
       <c r="F55" t="n">
-        <v>135.0277862548828</v>
+        <v>159.7836456298828</v>
       </c>
       <c r="G55" t="n">
-        <v>6942438</v>
+        <v>4515128</v>
       </c>
       <c r="H55" t="n">
         <v>2022</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
@@ -3374,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3388,31 +3380,31 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B56" t="n">
+        <v>171.75</v>
+      </c>
+      <c r="C56" t="n">
+        <v>174</v>
+      </c>
+      <c r="D56" t="n">
+        <v>142.5249938964844</v>
+      </c>
+      <c r="E56" t="n">
         <v>144.9499969482422</v>
       </c>
-      <c r="C56" t="n">
-        <v>156.4750061035156</v>
-      </c>
-      <c r="D56" t="n">
-        <v>140.375</v>
-      </c>
-      <c r="E56" t="n">
-        <v>147.1000061035156</v>
-      </c>
       <c r="F56" t="n">
-        <v>140.1653137207031</v>
+        <v>135.0277862548828</v>
       </c>
       <c r="G56" t="n">
-        <v>8812142</v>
+        <v>6942438</v>
       </c>
       <c r="H56" t="n">
         <v>2022</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>1</v>
@@ -3427,45 +3419,45 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B57" t="n">
-        <v>147.8000030517578</v>
+        <v>144.9499969482422</v>
       </c>
       <c r="C57" t="n">
-        <v>178.9499969482422</v>
+        <v>156.4750061035156</v>
       </c>
       <c r="D57" t="n">
-        <v>147.3249969482422</v>
+        <v>140.375</v>
       </c>
       <c r="E57" t="n">
-        <v>167.1499938964844</v>
+        <v>147.1000061035156</v>
       </c>
       <c r="F57" t="n">
-        <v>159.2700805664062</v>
+        <v>140.1653137207031</v>
       </c>
       <c r="G57" t="n">
-        <v>17916036</v>
+        <v>8812142</v>
       </c>
       <c r="H57" t="n">
         <v>2022</v>
       </c>
       <c r="I57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
         <v>1</v>
@@ -3480,45 +3472,45 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B58" t="n">
-        <v>167.6999969482422</v>
+        <v>147.8000030517578</v>
       </c>
       <c r="C58" t="n">
-        <v>174.9499969482422</v>
+        <v>178.9499969482422</v>
       </c>
       <c r="D58" t="n">
-        <v>150.0500030517578</v>
+        <v>147.3249969482422</v>
       </c>
       <c r="E58" t="n">
-        <v>161.5500030517578</v>
+        <v>167.1499938964844</v>
       </c>
       <c r="F58" t="n">
-        <v>153.93408203125</v>
+        <v>159.2700805664062</v>
       </c>
       <c r="G58" t="n">
-        <v>7011830</v>
+        <v>17916036</v>
       </c>
       <c r="H58" t="n">
         <v>2022</v>
       </c>
       <c r="I58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
         <v>1</v>
@@ -3533,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O58" t="n">
         <v>0</v>
@@ -3547,31 +3539,31 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B59" t="n">
-        <v>164</v>
+        <v>167.6999969482422</v>
       </c>
       <c r="C59" t="n">
-        <v>168.6999969482422</v>
+        <v>174.9499969482422</v>
       </c>
       <c r="D59" t="n">
-        <v>148.5</v>
+        <v>150.0500030517578</v>
       </c>
       <c r="E59" t="n">
-        <v>155.8500061035156</v>
+        <v>161.5500030517578</v>
       </c>
       <c r="F59" t="n">
-        <v>148.5027923583984</v>
+        <v>153.93408203125</v>
       </c>
       <c r="G59" t="n">
-        <v>6036176</v>
+        <v>7011830</v>
       </c>
       <c r="H59" t="n">
         <v>2022</v>
       </c>
       <c r="I59" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
@@ -3586,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3600,31 +3592,31 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B60" t="n">
-        <v>155.4499969482422</v>
+        <v>164</v>
       </c>
       <c r="C60" t="n">
-        <v>167</v>
+        <v>168.6999969482422</v>
       </c>
       <c r="D60" t="n">
-        <v>153.5749969482422</v>
+        <v>148.5</v>
       </c>
       <c r="E60" t="n">
-        <v>166.6750030517578</v>
+        <v>155.8500061035156</v>
       </c>
       <c r="F60" t="n">
-        <v>158.8174743652344</v>
+        <v>148.5027923583984</v>
       </c>
       <c r="G60" t="n">
-        <v>3142718</v>
+        <v>6036176</v>
       </c>
       <c r="H60" t="n">
         <v>2022</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
@@ -3639,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3648,36 +3640,36 @@
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B61" t="n">
+        <v>155.4499969482422</v>
+      </c>
+      <c r="C61" t="n">
         <v>167</v>
       </c>
-      <c r="C61" t="n">
-        <v>194</v>
-      </c>
       <c r="D61" t="n">
-        <v>164.0749969482422</v>
+        <v>153.5749969482422</v>
       </c>
       <c r="E61" t="n">
-        <v>188.3000030517578</v>
+        <v>166.6750030517578</v>
       </c>
       <c r="F61" t="n">
-        <v>179.4230041503906</v>
+        <v>158.8174743652344</v>
       </c>
       <c r="G61" t="n">
-        <v>18457194</v>
+        <v>3142718</v>
       </c>
       <c r="H61" t="n">
         <v>2022</v>
       </c>
       <c r="I61" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
         <v>1</v>
@@ -3692,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -3701,36 +3693,36 @@
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B62" t="n">
-        <v>188.4750061035156</v>
+        <v>167</v>
       </c>
       <c r="C62" t="n">
-        <v>222.3999938964844</v>
+        <v>194</v>
       </c>
       <c r="D62" t="n">
-        <v>185.6000061035156</v>
+        <v>164.0749969482422</v>
       </c>
       <c r="E62" t="n">
-        <v>220.5</v>
+        <v>188.3000030517578</v>
       </c>
       <c r="F62" t="n">
-        <v>210.1049957275391</v>
+        <v>179.4230041503906</v>
       </c>
       <c r="G62" t="n">
-        <v>55973222</v>
+        <v>18457194</v>
       </c>
       <c r="H62" t="n">
         <v>2022</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
@@ -3745,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3759,31 +3751,31 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B63" t="n">
-        <v>219.5</v>
+        <v>188.4750061035156</v>
       </c>
       <c r="C63" t="n">
-        <v>284</v>
+        <v>222.3999938964844</v>
       </c>
       <c r="D63" t="n">
-        <v>217.5500030517578</v>
+        <v>185.6000061035156</v>
       </c>
       <c r="E63" t="n">
-        <v>269.2749938964844</v>
+        <v>220.5</v>
       </c>
       <c r="F63" t="n">
-        <v>258.9002380371094</v>
+        <v>210.1049957275391</v>
       </c>
       <c r="G63" t="n">
-        <v>106263168</v>
+        <v>55973222</v>
       </c>
       <c r="H63" t="n">
         <v>2022</v>
       </c>
       <c r="I63" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J63" t="n">
         <v>1</v>
@@ -3798,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -3812,31 +3804,31 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B64" t="n">
-        <v>269.9500122070312</v>
+        <v>219.5</v>
       </c>
       <c r="C64" t="n">
-        <v>342.2000122070312</v>
+        <v>284</v>
       </c>
       <c r="D64" t="n">
-        <v>269.3250122070312</v>
+        <v>217.5500030517578</v>
       </c>
       <c r="E64" t="n">
-        <v>333.5249938964844</v>
+        <v>269.2749938964844</v>
       </c>
       <c r="F64" t="n">
-        <v>320.6747741699219</v>
+        <v>258.9002380371094</v>
       </c>
       <c r="G64" t="n">
-        <v>127232800</v>
+        <v>106263168</v>
       </c>
       <c r="H64" t="n">
         <v>2022</v>
       </c>
       <c r="I64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
@@ -3851,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3865,31 +3857,31 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>44896</v>
+        <v>44866</v>
       </c>
       <c r="B65" t="n">
-        <v>334.7000122070312</v>
+        <v>269.9500122070312</v>
       </c>
       <c r="C65" t="n">
-        <v>343.5</v>
+        <v>342.2000122070312</v>
       </c>
       <c r="D65" t="n">
-        <v>245.8999938964844</v>
+        <v>269.3250122070312</v>
       </c>
       <c r="E65" t="n">
-        <v>267.125</v>
+        <v>333.5249938964844</v>
       </c>
       <c r="F65" t="n">
-        <v>259.5945129394531</v>
+        <v>320.6747741699219</v>
       </c>
       <c r="G65" t="n">
-        <v>69299468</v>
+        <v>127232800</v>
       </c>
       <c r="H65" t="n">
         <v>2022</v>
       </c>
       <c r="I65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
         <v>1</v>
@@ -3904,10 +3896,10 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3918,31 +3910,31 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>44927</v>
+        <v>44896</v>
       </c>
       <c r="B66" t="n">
-        <v>265.4750061035156</v>
+        <v>334.7000122070312</v>
       </c>
       <c r="C66" t="n">
-        <v>273.4750061035156</v>
+        <v>343.5</v>
       </c>
       <c r="D66" t="n">
-        <v>234.1999969482422</v>
+        <v>245.8999938964844</v>
       </c>
       <c r="E66" t="n">
-        <v>255.9750061035156</v>
+        <v>267.125</v>
       </c>
       <c r="F66" t="n">
-        <v>248.7588348388672</v>
+        <v>259.5945129394531</v>
       </c>
       <c r="G66" t="n">
-        <v>34330770</v>
+        <v>69299468</v>
       </c>
       <c r="H66" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -3957,10 +3949,10 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -3971,31 +3963,31 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>44958</v>
+        <v>44927</v>
       </c>
       <c r="B67" t="n">
-        <v>257.8999938964844</v>
+        <v>265.4750061035156</v>
       </c>
       <c r="C67" t="n">
-        <v>261.2250061035156</v>
+        <v>273.4750061035156</v>
       </c>
       <c r="D67" t="n">
-        <v>225</v>
+        <v>234.1999969482422</v>
       </c>
       <c r="E67" t="n">
-        <v>226.0249938964844</v>
+        <v>255.9750061035156</v>
       </c>
       <c r="F67" t="n">
-        <v>219.6531372070312</v>
+        <v>248.7588348388672</v>
       </c>
       <c r="G67" t="n">
-        <v>21407414</v>
+        <v>34330770</v>
       </c>
       <c r="H67" t="n">
         <v>2023</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
         <v>1</v>
@@ -4010,7 +4002,7 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -4024,31 +4016,31 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B68" t="n">
-        <v>226.8999938964844</v>
+        <v>257.8999938964844</v>
       </c>
       <c r="C68" t="n">
-        <v>248.3500061035156</v>
+        <v>261.2250061035156</v>
       </c>
       <c r="D68" t="n">
-        <v>205.1999969482422</v>
+        <v>225</v>
       </c>
       <c r="E68" t="n">
-        <v>237.875</v>
+        <v>226.0249938964844</v>
       </c>
       <c r="F68" t="n">
-        <v>234.5172882080078</v>
+        <v>219.6531372070312</v>
       </c>
       <c r="G68" t="n">
-        <v>27453784</v>
+        <v>21407414</v>
       </c>
       <c r="H68" t="n">
         <v>2023</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
         <v>1</v>
@@ -4063,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4077,31 +4069,31 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B69" t="n">
-        <v>240.3500061035156</v>
+        <v>226.8999938964844</v>
       </c>
       <c r="C69" t="n">
-        <v>254.8000030517578</v>
+        <v>248.3500061035156</v>
       </c>
       <c r="D69" t="n">
-        <v>233.3249969482422</v>
+        <v>205.1999969482422</v>
       </c>
       <c r="E69" t="n">
-        <v>251.6999969482422</v>
+        <v>237.875</v>
       </c>
       <c r="F69" t="n">
-        <v>248.1471405029297</v>
+        <v>234.5172882080078</v>
       </c>
       <c r="G69" t="n">
-        <v>17556168</v>
+        <v>27453784</v>
       </c>
       <c r="H69" t="n">
         <v>2023</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>1</v>
@@ -4116,45 +4108,45 @@
         <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B70" t="n">
+        <v>240.3500061035156</v>
+      </c>
+      <c r="C70" t="n">
+        <v>254.8000030517578</v>
+      </c>
+      <c r="D70" t="n">
+        <v>233.3249969482422</v>
+      </c>
+      <c r="E70" t="n">
         <v>251.6999969482422</v>
       </c>
-      <c r="C70" t="n">
-        <v>283.125</v>
-      </c>
-      <c r="D70" t="n">
-        <v>234.4750061035156</v>
-      </c>
-      <c r="E70" t="n">
-        <v>248.1999969482422</v>
-      </c>
       <c r="F70" t="n">
-        <v>244.6965484619141</v>
+        <v>248.1471405029297</v>
       </c>
       <c r="G70" t="n">
-        <v>35415734</v>
+        <v>17556168</v>
       </c>
       <c r="H70" t="n">
         <v>2023</v>
       </c>
       <c r="I70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
@@ -4169,7 +4161,7 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4178,36 +4170,36 @@
         <v>0</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B71" t="n">
-        <v>248.3500061035156</v>
+        <v>251.6999969482422</v>
       </c>
       <c r="C71" t="n">
-        <v>304.7000122070312</v>
+        <v>283.125</v>
       </c>
       <c r="D71" t="n">
-        <v>245.125</v>
+        <v>234.4750061035156</v>
       </c>
       <c r="E71" t="n">
-        <v>282.8999938964844</v>
+        <v>248.1999969482422</v>
       </c>
       <c r="F71" t="n">
-        <v>278.90673828125</v>
+        <v>244.6965484619141</v>
       </c>
       <c r="G71" t="n">
-        <v>106026416</v>
+        <v>35415734</v>
       </c>
       <c r="H71" t="n">
         <v>2023</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
@@ -4222,7 +4214,7 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -4236,31 +4228,31 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B72" t="n">
-        <v>284.3250122070312</v>
+        <v>248.3500061035156</v>
       </c>
       <c r="C72" t="n">
-        <v>358.5</v>
+        <v>304.7000122070312</v>
       </c>
       <c r="D72" t="n">
-        <v>277.8999938964844</v>
+        <v>245.125</v>
       </c>
       <c r="E72" t="n">
-        <v>334.5249938964844</v>
+        <v>282.8999938964844</v>
       </c>
       <c r="F72" t="n">
-        <v>329.8030395507812</v>
+        <v>278.90673828125</v>
       </c>
       <c r="G72" t="n">
-        <v>145196640</v>
+        <v>106026416</v>
       </c>
       <c r="H72" t="n">
         <v>2023</v>
       </c>
       <c r="I72" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
         <v>1</v>
@@ -4275,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4284,36 +4276,36 @@
         <v>0</v>
       </c>
       <c r="Q72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B73" t="n">
-        <v>337.5</v>
+        <v>284.3250122070312</v>
       </c>
       <c r="C73" t="n">
-        <v>461.5</v>
+        <v>358.5</v>
       </c>
       <c r="D73" t="n">
-        <v>316.1000061035156</v>
+        <v>277.8999938964844</v>
       </c>
       <c r="E73" t="n">
-        <v>452.8500061035156</v>
+        <v>334.5249938964844</v>
       </c>
       <c r="F73" t="n">
-        <v>446.4578247070312</v>
+        <v>329.8030395507812</v>
       </c>
       <c r="G73" t="n">
-        <v>238180408</v>
+        <v>145196640</v>
       </c>
       <c r="H73" t="n">
         <v>2023</v>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J73" t="n">
         <v>1</v>
@@ -4328,7 +4320,7 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4337,36 +4329,36 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B74" t="n">
-        <v>455.125</v>
+        <v>337.5</v>
       </c>
       <c r="C74" t="n">
-        <v>629.25</v>
+        <v>461.5</v>
       </c>
       <c r="D74" t="n">
-        <v>446.5499877929688</v>
+        <v>316.1000061035156</v>
       </c>
       <c r="E74" t="n">
-        <v>542.625</v>
+        <v>452.8500061035156</v>
       </c>
       <c r="F74" t="n">
-        <v>534.9656372070312</v>
+        <v>446.4578247070312</v>
       </c>
       <c r="G74" t="n">
-        <v>232156860</v>
+        <v>238180408</v>
       </c>
       <c r="H74" t="n">
         <v>2023</v>
       </c>
       <c r="I74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
         <v>1</v>
@@ -4381,7 +4373,7 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -4395,31 +4387,31 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B75" t="n">
+        <v>455.125</v>
+      </c>
+      <c r="C75" t="n">
+        <v>629.25</v>
+      </c>
+      <c r="D75" t="n">
+        <v>446.5499877929688</v>
+      </c>
+      <c r="E75" t="n">
         <v>542.625</v>
       </c>
-      <c r="C75" t="n">
-        <v>552.5</v>
-      </c>
-      <c r="D75" t="n">
-        <v>435.6000061035156</v>
-      </c>
-      <c r="E75" t="n">
-        <v>475.6749877929688</v>
-      </c>
       <c r="F75" t="n">
-        <v>470.283935546875</v>
+        <v>534.9656372070312</v>
       </c>
       <c r="G75" t="n">
-        <v>82988036</v>
+        <v>232156860</v>
       </c>
       <c r="H75" t="n">
         <v>2023</v>
       </c>
       <c r="I75" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J75" t="n">
         <v>1</v>
@@ -4434,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4448,31 +4440,31 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B76" t="n">
-        <v>477.2000122070312</v>
+        <v>542.625</v>
       </c>
       <c r="C76" t="n">
-        <v>609</v>
+        <v>552.5</v>
       </c>
       <c r="D76" t="n">
-        <v>470</v>
+        <v>435.6000061035156</v>
       </c>
       <c r="E76" t="n">
-        <v>602.2999877929688</v>
+        <v>475.6749877929688</v>
       </c>
       <c r="F76" t="n">
-        <v>595.473876953125</v>
+        <v>470.283935546875</v>
       </c>
       <c r="G76" t="n">
-        <v>105513468</v>
+        <v>82988036</v>
       </c>
       <c r="H76" t="n">
         <v>2023</v>
       </c>
       <c r="I76" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J76" t="n">
         <v>1</v>
@@ -4487,7 +4479,7 @@
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -4501,31 +4493,31 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B77" t="n">
-        <v>600</v>
+        <v>477.2000122070312</v>
       </c>
       <c r="C77" t="n">
-        <v>704.4249877929688</v>
+        <v>609</v>
       </c>
       <c r="D77" t="n">
-        <v>577.875</v>
+        <v>470</v>
       </c>
       <c r="E77" t="n">
-        <v>676.9749755859375</v>
+        <v>602.2999877929688</v>
       </c>
       <c r="F77" t="n">
-        <v>674.29052734375</v>
+        <v>595.473876953125</v>
       </c>
       <c r="G77" t="n">
-        <v>123609914</v>
+        <v>105513468</v>
       </c>
       <c r="H77" t="n">
         <v>2023</v>
       </c>
       <c r="I77" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J77" t="n">
         <v>1</v>
@@ -4540,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -4554,31 +4546,31 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B78" t="n">
-        <v>680.125</v>
+        <v>600</v>
       </c>
       <c r="C78" t="n">
-        <v>945</v>
+        <v>704.4249877929688</v>
       </c>
       <c r="D78" t="n">
-        <v>611.2750244140625</v>
+        <v>577.875</v>
       </c>
       <c r="E78" t="n">
-        <v>912.2000122070312</v>
+        <v>676.9749755859375</v>
       </c>
       <c r="F78" t="n">
-        <v>908.5828247070312</v>
+        <v>674.29052734375</v>
       </c>
       <c r="G78" t="n">
-        <v>139711139</v>
+        <v>123609914</v>
       </c>
       <c r="H78" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J78" t="n">
         <v>1</v>
@@ -4593,7 +4585,7 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -4607,31 +4599,31 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B79" t="n">
-        <v>922.5</v>
+        <v>680.125</v>
       </c>
       <c r="C79" t="n">
-        <v>941.9500122070312</v>
+        <v>945</v>
       </c>
       <c r="D79" t="n">
-        <v>790</v>
+        <v>611.2750244140625</v>
       </c>
       <c r="E79" t="n">
-        <v>875.0999755859375</v>
+        <v>912.2000122070312</v>
       </c>
       <c r="F79" t="n">
-        <v>871.6299438476562</v>
+        <v>908.5828247070312</v>
       </c>
       <c r="G79" t="n">
-        <v>49844690</v>
+        <v>139711139</v>
       </c>
       <c r="H79" t="n">
         <v>2024</v>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
         <v>1</v>
@@ -4646,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="N79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -4660,31 +4652,31 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B80" t="n">
-        <v>878.9000244140625</v>
+        <v>922.5</v>
       </c>
       <c r="C80" t="n">
-        <v>930.7999877929688</v>
+        <v>941.9500122070312</v>
       </c>
       <c r="D80" t="n">
-        <v>713.3499755859375</v>
+        <v>790</v>
       </c>
       <c r="E80" t="n">
-        <v>871.7999877929688</v>
+        <v>875.0999755859375</v>
       </c>
       <c r="F80" t="n">
-        <v>871.7999877929688</v>
+        <v>871.6299438476562</v>
       </c>
       <c r="G80" t="n">
-        <v>51019476</v>
+        <v>49844690</v>
       </c>
       <c r="H80" t="n">
         <v>2024</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
         <v>1</v>
@@ -4699,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -4713,31 +4705,31 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B81" t="n">
-        <v>887</v>
+        <v>878.9000244140625</v>
       </c>
       <c r="C81" t="n">
-        <v>1378</v>
+        <v>930.7999877929688</v>
       </c>
       <c r="D81" t="n">
-        <v>885.3499755859375</v>
+        <v>713.3499755859375</v>
       </c>
       <c r="E81" t="n">
-        <v>1303.900024414062</v>
+        <v>871.7999877929688</v>
       </c>
       <c r="F81" t="n">
-        <v>1303.900024414062</v>
+        <v>871.7999877929688</v>
       </c>
       <c r="G81" t="n">
-        <v>128728723</v>
+        <v>51019476</v>
       </c>
       <c r="H81" t="n">
         <v>2024</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
@@ -4752,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -4766,31 +4758,31 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B82" t="n">
+        <v>887</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1378</v>
+      </c>
+      <c r="D82" t="n">
+        <v>885.3499755859375</v>
+      </c>
+      <c r="E82" t="n">
         <v>1303.900024414062</v>
       </c>
-      <c r="C82" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1168</v>
-      </c>
-      <c r="E82" t="n">
-        <v>1947.650024414062</v>
-      </c>
       <c r="F82" t="n">
-        <v>1947.650024414062</v>
+        <v>1303.900024414062</v>
       </c>
       <c r="G82" t="n">
-        <v>179765752</v>
+        <v>128728723</v>
       </c>
       <c r="H82" t="n">
         <v>2024</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
@@ -4805,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -4819,56 +4811,514 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B83" t="n">
-        <v>2100</v>
+        <v>1303.900024414062</v>
       </c>
       <c r="C83" t="n">
         <v>2100</v>
       </c>
       <c r="D83" t="n">
-        <v>1630.550048828125</v>
+        <v>1168</v>
       </c>
       <c r="E83" t="n">
-        <v>1912.75</v>
+        <v>1947.650024414062</v>
       </c>
       <c r="F83" t="n">
-        <v>1912.75</v>
+        <v>1947.650024414062</v>
       </c>
       <c r="G83" t="n">
-        <v>26509731</v>
+        <v>179765752</v>
       </c>
       <c r="H83" t="n">
         <v>2024</v>
       </c>
       <c r="I83" t="n">
+        <v>5</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>18</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1630.550048828125</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1912.75</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1912.75</v>
+      </c>
+      <c r="G84" t="n">
+        <v>26509731</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I84" t="n">
         <v>6</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0</v>
-      </c>
-      <c r="N83" t="n">
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
         <v>22</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0</v>
-      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2258.223618154054</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2958.844474732997</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2194.765638968528</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2602.029296875</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="n">
+        <v>92284622</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>27</v>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2630.679996301625</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2671.197879389688</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1847.136577244629</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1873.602294921875</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>44550450</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>31</v>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1867.991273868101</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1984.877229064148</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1626.671827004758</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1728.31396484375</v>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>40623495</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I87" t="n">
+        <v>9</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>35</v>
+      </c>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1725.600695781236</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1725.600695781236</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1332.356630565748</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1488.659912109375</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>13188471</v>
+      </c>
+      <c r="H88" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I88" t="n">
+        <v>10</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>40</v>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1514.312780226545</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1575.959131095912</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1257.784416931437</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1568.303100585938</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="n">
+        <v>8699454</v>
+      </c>
+      <c r="H89" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>44</v>
+      </c>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1627.195087081451</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1730.322277844959</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1440.189828835804</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1534.689819335938</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="n">
+        <v>9464498</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I90" t="n">
+        <v>12</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>48</v>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1554.287942663311</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1615.625665312368</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1328.585021842375</v>
+      </c>
+      <c r="E91" t="n">
+        <v>1528.2568359375</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="n">
+        <v>9959333</v>
+      </c>
+      <c r="H91" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1543.915332638822</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1555.883668550751</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1177.085788238919</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1265.202758789062</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>17011924</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1268.550048828125</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1520</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1199.599975585938</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1407.900024414062</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="n">
+        <v>24572053</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>9</v>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
